--- a/excelParse/test.xlsx
+++ b/excelParse/test.xlsx
@@ -1,388 +1,376 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="25860" windowHeight="11820"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zh-hans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>de</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k1</t>
   </si>
   <si>
     <t>zh1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>en1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ar1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>de1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>k2</t>
   </si>
   <si>
+    <t>zh2</t>
+  </si>
+  <si>
+    <t>en2</t>
+  </si>
+  <si>
+    <t>ar2</t>
+  </si>
+  <si>
+    <t>de2</t>
+  </si>
+  <si>
     <t>k3</t>
   </si>
   <si>
+    <t>zh3</t>
+  </si>
+  <si>
+    <t>en3</t>
+  </si>
+  <si>
+    <t>ar3</t>
+  </si>
+  <si>
+    <t>de3</t>
+  </si>
+  <si>
     <t>k4</t>
   </si>
   <si>
+    <t>zh4</t>
+  </si>
+  <si>
+    <t>en4</t>
+  </si>
+  <si>
+    <t>ar4</t>
+  </si>
+  <si>
+    <t>de4</t>
+  </si>
+  <si>
     <t>k5</t>
   </si>
   <si>
+    <t>zh5</t>
+  </si>
+  <si>
+    <t>en5</t>
+  </si>
+  <si>
+    <t>ar5</t>
+  </si>
+  <si>
+    <t>de5</t>
+  </si>
+  <si>
     <t>k6</t>
   </si>
   <si>
+    <t>zh6</t>
+  </si>
+  <si>
+    <t>en6</t>
+  </si>
+  <si>
+    <t>ar6</t>
+  </si>
+  <si>
+    <t>de6</t>
+  </si>
+  <si>
     <t>k7</t>
   </si>
   <si>
+    <t>zh7</t>
+  </si>
+  <si>
+    <t>en7</t>
+  </si>
+  <si>
+    <t>ar7</t>
+  </si>
+  <si>
+    <t>de7</t>
+  </si>
+  <si>
     <t>k8</t>
   </si>
   <si>
+    <t>zh8</t>
+  </si>
+  <si>
+    <t>en8</t>
+  </si>
+  <si>
+    <t>ar8</t>
+  </si>
+  <si>
+    <t>de8</t>
+  </si>
+  <si>
     <t>k9</t>
   </si>
   <si>
+    <t>zh9</t>
+  </si>
+  <si>
+    <t>en9</t>
+  </si>
+  <si>
+    <t>ar9</t>
+  </si>
+  <si>
+    <t>de9</t>
+  </si>
+  <si>
     <t>k10</t>
   </si>
   <si>
+    <t>zh10</t>
+  </si>
+  <si>
+    <t>en10</t>
+  </si>
+  <si>
+    <t>ar10</t>
+  </si>
+  <si>
+    <t>de10</t>
+  </si>
+  <si>
     <t>k11</t>
   </si>
   <si>
+    <t>zh11</t>
+  </si>
+  <si>
+    <t>en11</t>
+  </si>
+  <si>
+    <t>ar11</t>
+  </si>
+  <si>
+    <t>de11</t>
+  </si>
+  <si>
     <t>k12</t>
   </si>
   <si>
+    <t>zh12</t>
+  </si>
+  <si>
+    <t>en12</t>
+  </si>
+  <si>
+    <t>ar12</t>
+  </si>
+  <si>
+    <t>de12</t>
+  </si>
+  <si>
     <t>k13</t>
   </si>
   <si>
+    <t>zh13</t>
+  </si>
+  <si>
+    <t>en13</t>
+  </si>
+  <si>
+    <t>ar13</t>
+  </si>
+  <si>
+    <t>de13</t>
+  </si>
+  <si>
     <t>k14</t>
   </si>
   <si>
+    <t>zh14</t>
+  </si>
+  <si>
+    <t>en14</t>
+  </si>
+  <si>
+    <t>ar14</t>
+  </si>
+  <si>
+    <t>de14</t>
+  </si>
+  <si>
     <t>k15</t>
   </si>
   <si>
+    <t>zh15</t>
+  </si>
+  <si>
+    <t>en15</t>
+  </si>
+  <si>
+    <t>ar15</t>
+  </si>
+  <si>
+    <t>de15</t>
+  </si>
+  <si>
     <t>k16</t>
   </si>
   <si>
+    <t>zh16</t>
+  </si>
+  <si>
+    <t>en16</t>
+  </si>
+  <si>
+    <t>ar16</t>
+  </si>
+  <si>
+    <t>de16</t>
+  </si>
+  <si>
     <t>k17</t>
   </si>
   <si>
+    <t>zh17</t>
+  </si>
+  <si>
+    <t>en17</t>
+  </si>
+  <si>
+    <t>ar17</t>
+  </si>
+  <si>
+    <t>de17</t>
+  </si>
+  <si>
     <t>k18</t>
   </si>
   <si>
+    <t>zh18</t>
+  </si>
+  <si>
+    <t>en18</t>
+  </si>
+  <si>
+    <t>ar18</t>
+  </si>
+  <si>
+    <t>de18</t>
+  </si>
+  <si>
     <t>k19</t>
   </si>
   <si>
+    <t>zh19</t>
+  </si>
+  <si>
+    <t>en19</t>
+  </si>
+  <si>
+    <t>ar19</t>
+  </si>
+  <si>
+    <t>de19</t>
+  </si>
+  <si>
     <t>k20</t>
   </si>
   <si>
+    <t>zh20</t>
+  </si>
+  <si>
+    <t>en20</t>
+  </si>
+  <si>
+    <t>ar20</t>
+  </si>
+  <si>
+    <t>de20</t>
+  </si>
+  <si>
     <t>k21</t>
   </si>
   <si>
+    <t>zh21</t>
+  </si>
+  <si>
+    <t>en21</t>
+  </si>
+  <si>
+    <t>ar21</t>
+  </si>
+  <si>
+    <t>de21</t>
+  </si>
+  <si>
     <t>k22</t>
   </si>
   <si>
+    <t>zh22</t>
+  </si>
+  <si>
+    <t>en22</t>
+  </si>
+  <si>
+    <t>ar22</t>
+  </si>
+  <si>
+    <t>de22</t>
+  </si>
+  <si>
     <t>k23</t>
   </si>
   <si>
-    <t>zh2</t>
-  </si>
-  <si>
-    <t>zh3</t>
-  </si>
-  <si>
-    <t>zh4</t>
-  </si>
-  <si>
-    <t>zh5</t>
-  </si>
-  <si>
-    <t>zh6</t>
-  </si>
-  <si>
-    <t>zh7</t>
-  </si>
-  <si>
-    <t>zh8</t>
-  </si>
-  <si>
-    <t>zh9</t>
-  </si>
-  <si>
-    <t>zh10</t>
-  </si>
-  <si>
-    <t>zh11</t>
-  </si>
-  <si>
-    <t>zh12</t>
-  </si>
-  <si>
-    <t>zh13</t>
-  </si>
-  <si>
-    <t>zh14</t>
-  </si>
-  <si>
-    <t>zh15</t>
-  </si>
-  <si>
-    <t>zh16</t>
-  </si>
-  <si>
-    <t>zh17</t>
-  </si>
-  <si>
-    <t>zh18</t>
-  </si>
-  <si>
-    <t>zh19</t>
-  </si>
-  <si>
-    <t>zh20</t>
-  </si>
-  <si>
-    <t>zh21</t>
-  </si>
-  <si>
-    <t>zh22</t>
-  </si>
-  <si>
     <t>zh23</t>
   </si>
   <si>
-    <t>en2</t>
-  </si>
-  <si>
-    <t>en3</t>
-  </si>
-  <si>
-    <t>en4</t>
-  </si>
-  <si>
-    <t>en5</t>
-  </si>
-  <si>
-    <t>en6</t>
-  </si>
-  <si>
-    <t>en7</t>
-  </si>
-  <si>
-    <t>en8</t>
-  </si>
-  <si>
-    <t>en9</t>
-  </si>
-  <si>
-    <t>en10</t>
-  </si>
-  <si>
-    <t>en11</t>
-  </si>
-  <si>
-    <t>en12</t>
-  </si>
-  <si>
-    <t>en13</t>
-  </si>
-  <si>
-    <t>en14</t>
-  </si>
-  <si>
-    <t>en15</t>
-  </si>
-  <si>
-    <t>en16</t>
-  </si>
-  <si>
-    <t>en17</t>
-  </si>
-  <si>
-    <t>en18</t>
-  </si>
-  <si>
-    <t>en19</t>
-  </si>
-  <si>
-    <t>en20</t>
-  </si>
-  <si>
-    <t>en21</t>
-  </si>
-  <si>
-    <t>en22</t>
-  </si>
-  <si>
     <t>en23</t>
   </si>
   <si>
-    <t>ar2</t>
-  </si>
-  <si>
-    <t>ar3</t>
-  </si>
-  <si>
-    <t>ar4</t>
-  </si>
-  <si>
-    <t>ar5</t>
-  </si>
-  <si>
-    <t>ar6</t>
-  </si>
-  <si>
-    <t>ar7</t>
-  </si>
-  <si>
-    <t>ar8</t>
-  </si>
-  <si>
-    <t>ar9</t>
-  </si>
-  <si>
-    <t>ar10</t>
-  </si>
-  <si>
-    <t>ar11</t>
-  </si>
-  <si>
-    <t>ar12</t>
-  </si>
-  <si>
-    <t>ar13</t>
-  </si>
-  <si>
-    <t>ar14</t>
-  </si>
-  <si>
-    <t>ar15</t>
-  </si>
-  <si>
-    <t>ar16</t>
-  </si>
-  <si>
-    <t>ar17</t>
-  </si>
-  <si>
-    <t>ar18</t>
-  </si>
-  <si>
-    <t>ar19</t>
-  </si>
-  <si>
-    <t>ar20</t>
-  </si>
-  <si>
-    <t>ar21</t>
-  </si>
-  <si>
-    <t>ar22</t>
-  </si>
-  <si>
     <t>ar23</t>
-  </si>
-  <si>
-    <t>de2</t>
-  </si>
-  <si>
-    <t>de3</t>
-  </si>
-  <si>
-    <t>de4</t>
-  </si>
-  <si>
-    <t>de5</t>
-  </si>
-  <si>
-    <t>de6</t>
-  </si>
-  <si>
-    <t>de7</t>
-  </si>
-  <si>
-    <t>de8</t>
-  </si>
-  <si>
-    <t>de9</t>
-  </si>
-  <si>
-    <t>de10</t>
-  </si>
-  <si>
-    <t>de11</t>
-  </si>
-  <si>
-    <t>de12</t>
-  </si>
-  <si>
-    <t>de13</t>
-  </si>
-  <si>
-    <t>de14</t>
-  </si>
-  <si>
-    <t>de15</t>
-  </si>
-  <si>
-    <t>de16</t>
-  </si>
-  <si>
-    <t>de17</t>
-  </si>
-  <si>
-    <t>de18</t>
-  </si>
-  <si>
-    <t>de19</t>
-  </si>
-  <si>
-    <t>de20</t>
-  </si>
-  <si>
-    <t>de21</t>
-  </si>
-  <si>
-    <t>de22</t>
   </si>
   <si>
     <t>de23</t>
@@ -392,30 +380,366 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -423,9 +747,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -434,11 +1000,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -721,19 +1339,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -754,10 +1372,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -774,403 +1392,377 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excelParse/test.xlsx
+++ b/excelParse/test.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="language" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -382,9 +382,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -397,6 +397,44 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -425,15 +463,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,9 +485,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,20 +506,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -501,43 +538,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -554,6 +554,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -578,25 +602,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,12 +692,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -645,72 +711,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,6 +768,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,177 +845,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1343,7 +1343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
